--- a/data/datasets/properties_1/datasets_excel/demographics.xlsx
+++ b/data/datasets/properties_1/datasets_excel/demographics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,1566 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>7039302</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>7039225</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>7039276</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7039286</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7039269</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>7039295</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>7039277</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>7039252</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>7039292</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>7039314</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>7039307</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Prefer Not To Say</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>7039304</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>7039316</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>7039317</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Other (please specify)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Nonbinary</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>7039287</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>7039339</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>7039306</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>7039360</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>7039313</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>7039319</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>7039310</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>7039284</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>7039305</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>7039303</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>7039325</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>7039308</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>7039311</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>7039399</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>7039291</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>7039321</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>7039322</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>7039273</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>7039361</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>7039348</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>7039385</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>7039312</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>7039270</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>7039318</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>7039323</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>7039356</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>7039333</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>7039315</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>7039362</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>7039226</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>7039296</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>7039342</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>7039458</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>7039274</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>7039293</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>7039234</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>7039300</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>7039301</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>7039294</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>7039357</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>7039589</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>7039320</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>7039526</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>7039309</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>7039289</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>7039805</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
